--- a/data-raw/metadata/lower_feather_trap_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_trap_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760DAFF-3D6F-9E4B-9B0F-3B42A8D78735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C582F92D-A636-9343-9899-48ACD80E8569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>cubicFeetPerSecond</t>
   </si>
   <si>
-    <t>feetPerSecond</t>
-  </si>
-  <si>
     <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", "No catch data; fish released")</t>
   </si>
   <si>
@@ -215,10 +212,6 @@
   </si>
   <si>
     <t>Lower Feather RST</t>
-  </si>
-  <si>
-    <t>Name of the sampling site. Level = "Lower Feather River RST"
-)</t>
   </si>
   <si>
     <t>Position of trap within the site. Levels =c("RL", "RR")</t>
@@ -250,6 +243,12 @@
   </si>
   <si>
     <t>Unit of water temperature recorded</t>
+  </si>
+  <si>
+    <t>Name of the sampling site. Level = "Lower Feather River RST"</t>
+  </si>
+  <si>
+    <t>metersPerSecond</t>
   </si>
 </sst>
 </file>
@@ -361,11 +360,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,7 +583,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -739,7 +738,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -777,7 +776,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -794,7 +793,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
-      <c r="L5" s="20"/>
+      <c r="L5" s="18"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
@@ -834,11 +833,11 @@
         <v>26</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="20" t="s">
-        <v>65</v>
+      <c r="L6" s="18" t="s">
+        <v>63</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>66</v>
+      <c r="M6" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -859,7 +858,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -897,7 +896,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -935,7 +934,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -1117,7 +1116,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1218,7 +1217,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1266,7 +1265,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1344,10 +1343,10 @@
     </row>
     <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>32</v>
@@ -1362,7 +1361,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>35</v>
@@ -1392,10 +1391,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1410,7 +1409,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>35</v>
@@ -1440,10 +1439,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -2037,7 +2036,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2065,7 +2064,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2093,7 +2092,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2121,7 +2120,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="20"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -29107,7 +29106,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>

--- a/data-raw/metadata/lower_feather_trap_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_trap_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C582F92D-A636-9343-9899-48ACD80E8569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34433DD0-F7A4-2E4C-89EA-A212ED5ECE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>discharge</t>
   </si>
   <si>
-    <t>Dischage measured at trap</t>
-  </si>
-  <si>
     <t>waterVel</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>cubicFeetPerSecond</t>
   </si>
   <si>
-    <t>Describing if fish processed during trap visit. Levels = c("Processed fish", "N/A; not a sampling visit", "No fish were caught", "No catch data; fish released")</t>
-  </si>
-  <si>
     <t>dissolvedOxygen</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>waterTempUnit</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table.  For the Lower Feather River, Project Description ID = 12.</t>
-  </si>
-  <si>
     <t>Lower Feather RST</t>
   </si>
   <si>
@@ -218,16 +209,6 @@
   </si>
   <si>
     <t>2022-01-19 12:30:11</t>
-  </si>
-  <si>
-    <t>2023-02-02 11:30:15</t>
-  </si>
-  <si>
-    <t>Work that was done during visit to trap. Levels = c("Start trap &amp; begin trapping", "Continue trapping", "Unplanned restart", "End trapping")</t>
-  </si>
-  <si>
-    <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("N/A; not a sampling visit", "Processed fish", "No fish were caught", 
-"No catch data; fish released")</t>
   </si>
   <si>
     <t>Code for whether this record is considered of high enough quality to include in analysis. Levels = c("Yes", "No")</t>
@@ -242,13 +223,31 @@
     <t>Electrical conductivity of water measured</t>
   </si>
   <si>
-    <t>Unit of water temperature recorded</t>
-  </si>
-  <si>
     <t>Name of the sampling site. Level = "Lower Feather River RST"</t>
   </si>
   <si>
     <t>metersPerSecond</t>
+  </si>
+  <si>
+    <t>Foreign key to the CAMP ProjectDescription table.  All data associated with this package will have a ProjectDescriptionID = 12.</t>
+  </si>
+  <si>
+    <t>2023-03-06 10:00:57</t>
+  </si>
+  <si>
+    <t>Work that was done during visit to trap. Levels = c("Start trap &amp; begin trapping", "Continue trapping", "Unplanned restart", "End trapping", "Drive-by only")</t>
+  </si>
+  <si>
+    <t>Describing if fish processed during trap visit. Levels = c("N/A; not a sampling visit", "Processed fish", "No fish were caught", "No catch data; fish released")</t>
+  </si>
+  <si>
+    <t>Code for description of how well trap is functioning when visit to trap began. Levels = c("Not recorded", "Trap functioning normally", "Trap stopped functioning", "Trap functioning, but not normally", "Trap not in service")</t>
+  </si>
+  <si>
+    <t>Discharge measured at trap</t>
+  </si>
+  <si>
+    <t>Unit of water temperature recorded. Levels = c(NA, "Celsius", "Fahrenheit").</t>
   </si>
 </sst>
 </file>
@@ -321,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -365,6 +364,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +586,7 @@
   <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -662,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -738,7 +741,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -776,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>18</v>
@@ -834,10 +837,10 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
@@ -858,7 +861,7 @@
         <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -891,50 +894,50 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:26" s="24" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
+      <c r="B8" s="21" t="s">
+        <v>70</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -999,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>148036</v>
+        <v>7608</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1047,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>3.4</v>
+        <v>20</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1116,7 +1119,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1154,7 +1157,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1169,7 +1172,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>35</v>
@@ -1199,10 +1202,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1217,7 +1220,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1226,7 +1229,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>0.9</v>
@@ -1247,10 +1250,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1265,7 +1268,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1295,10 +1298,10 @@
     </row>
     <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1313,7 +1316,7 @@
         <v>32</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1343,10 +1346,10 @@
     </row>
     <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>32</v>
@@ -1361,7 +1364,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" s="13" t="s">
         <v>35</v>
@@ -1391,10 +1394,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1409,7 +1412,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>35</v>
@@ -1439,10 +1442,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
@@ -29069,13 +29072,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
@@ -29106,7 +29109,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>13</v>

--- a/data-raw/metadata/lower_feather_trap_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_trap_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-lower-feather-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37039D65-FDB4-4F57-8AA0-D84DCDEBB607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8E0CDD-2B90-4ACB-A553-A091D4ACBC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="1170" windowWidth="19900" windowHeight="13150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="3090" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -249,6 +249,15 @@
   <si>
     <t>Work that was done during visit to trap. Levels = c("Start trap &amp; begin trapping", "Continue trapping", "Unplanned restart", "End trapping", "Drive-by only", "Service/adjust/clean trap")</t>
   </si>
+  <si>
+    <t>visitTime2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date and time of day associated with the end of trap visit. Definition varies based on visitType. </t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -364,6 +373,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -890,30 +900,32 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>68</v>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>19</v>
+      <c r="D8" s="5" t="s">
+        <v>76</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -928,78 +940,68 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="2"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>7608</v>
-      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1016,10 +1018,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1034,7 +1036,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>35</v>
@@ -1046,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>5.6</v>
+        <v>7608</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -1064,7 +1066,7 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -1094,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>5.95</v>
+        <v>5.6</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1112,28 +1114,38 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>5.95</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1150,38 +1162,28 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3">
-        <v>32.409999999999997</v>
-      </c>
-      <c r="M14" s="3">
-        <v>51654</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1198,10 +1200,10 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1216,7 +1218,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>35</v>
@@ -1225,10 +1227,10 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>32.409999999999997</v>
       </c>
       <c r="M15" s="3">
-        <v>1.4</v>
+        <v>51654</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -1246,10 +1248,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1264,7 +1266,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>35</v>
@@ -1273,10 +1275,10 @@
       <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>68.599999999999994</v>
+        <v>1.4</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1292,12 +1294,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
-        <v>46</v>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>44</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>47</v>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1311,8 +1313,8 @@
       <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>48</v>
+      <c r="G17" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>35</v>
@@ -1321,58 +1323,58 @@
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="3">
-        <v>0.73</v>
+        <v>8.4</v>
       </c>
       <c r="M17" s="3">
-        <v>59.6</v>
+        <v>68.599999999999994</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13">
-        <v>6.7900000000000002E-2</v>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3">
+        <v>0.73</v>
       </c>
-      <c r="M18" s="13">
-        <v>830</v>
+      <c r="M18" s="3">
+        <v>59.6</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -1388,78 +1390,88 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <v>6.7900000000000002E-2</v>
+      </c>
+      <c r="M19" s="13">
+        <v>830</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M19" s="3">
-        <v>2.52</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2.52</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1475,11 +1487,21 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -2035,7 +2057,7 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19"/>
+      <c r="A41" s="4"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2"/>
@@ -2063,7 +2085,7 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2"/>
@@ -2091,7 +2113,7 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2"/>
@@ -2119,7 +2141,7 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2"/>
@@ -2147,7 +2169,7 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="A45" s="20"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2"/>
@@ -3099,7 +3121,7 @@
       <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="1"/>
+      <c r="A79" s="4"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2"/>
@@ -29026,22 +29048,50 @@
       <c r="Y1004" s="1"/>
       <c r="Z1004" s="1"/>
     </row>
+    <row r="1005" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1005" s="1"/>
+      <c r="B1005" s="1"/>
+      <c r="C1005" s="1"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="1"/>
+      <c r="F1005" s="3"/>
+      <c r="G1005" s="3"/>
+      <c r="H1005" s="3"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="3"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="3"/>
+      <c r="M1005" s="3"/>
+      <c r="N1005" s="1"/>
+      <c r="O1005" s="1"/>
+      <c r="P1005" s="1"/>
+      <c r="Q1005" s="1"/>
+      <c r="R1005" s="1"/>
+      <c r="S1005" s="1"/>
+      <c r="T1005" s="1"/>
+      <c r="U1005" s="1"/>
+      <c r="V1005" s="1"/>
+      <c r="W1005" s="1"/>
+      <c r="X1005" s="1"/>
+      <c r="Y1005" s="1"/>
+      <c r="Z1005" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E19:E1004 E1:E17" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E20:E1005 E1:E18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F19:F1004 F1:F17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F20:F1005 F1:F18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C19:C49 C61:C1004 C1:C17" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C20:C50 C62:C1005 C1:C18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H19:H1004 H1:H17" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H20:H1005 H1:H18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
